--- a/Template/Шаблон для загрузки персон в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки персон в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KALINI~1\AppData\Local\Temp\WebAccessAgentCache\RX\Aura\NT_WORK_Kalinin_SV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ИНН</t>
   </si>
@@ -188,13 +188,10 @@
     <t>Почтовый адрес</t>
   </si>
   <si>
-    <t>Статус</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
-    <t>Сообщение</t>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -247,12 +244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,8 +254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -287,11 +284,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,16 +357,26 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -692,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -714,26 +749,26 @@
     <col min="14" max="15" width="32.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="32.42578125" style="9" customWidth="1"/>
     <col min="17" max="17" width="39.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="18" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" style="18" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -769,17 +804,17 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>19</v>
+      <c r="T1" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -799,7 +834,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
@@ -818,7 +853,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -837,7 +872,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -856,7 +891,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -875,7 +910,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -894,7 +929,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -913,7 +948,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -932,7 +967,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -951,7 +986,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -970,7 +1005,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
@@ -989,7 +1024,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -1008,7 +1043,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -1027,7 +1062,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -1046,7 +1081,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -1065,7 +1100,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -1084,7 +1119,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -1103,7 +1138,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -1122,7 +1157,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -1141,7 +1176,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -1160,7 +1195,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -1179,7 +1214,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
@@ -1198,7 +1233,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
@@ -1217,7 +1252,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
@@ -1236,7 +1271,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -1255,7 +1290,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
@@ -1274,7 +1309,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -1293,7 +1328,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -1312,7 +1347,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
@@ -1331,7 +1366,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -1350,7 +1385,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
@@ -1369,7 +1404,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1388,7 +1423,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -1407,7 +1442,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -1426,7 +1461,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -1445,7 +1480,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
@@ -1464,7 +1499,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
@@ -1483,7 +1518,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -1502,7 +1537,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -1521,7 +1556,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -1540,7 +1575,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -1559,7 +1594,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -1578,7 +1613,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -1597,7 +1632,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="16"/>
     </row>
     <row r="45" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -1616,7 +1651,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -1635,7 +1670,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -1654,7 +1689,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="16"/>
     </row>
     <row r="48" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -1673,7 +1708,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="16"/>
     </row>
     <row r="49" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -1692,7 +1727,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="16"/>
     </row>
     <row r="50" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -1711,10 +1746,9 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
